--- a/Data/Transitions/19391940Translation.xlsx
+++ b/Data/Transitions/19391940Translation.xlsx
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757}</t>
+    <t>{85.0: 0.9963619827194179}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -223,7 +223,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -355,7 +355,7 @@
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 850.0: 0.0026622296173044926}</t>
+    <t>{180.0: 1.0, 850.0: 0.00266755585195065}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -394,7 +394,7 @@
     <t>{208.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9932935916542474}</t>
+    <t>{209.0: 0.9932177844762623}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447}</t>
+    <t>{402.0: 0.9989634083134653}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.0067064083457526085, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.006782215523737754, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1249,7 +1249,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1432,7 +1432,7 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
@@ -1453,7 +1453,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1516,7 +1516,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1690,7 +1690,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1714,7 +1714,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
